--- a/src/main/resources/excel.xlsx
+++ b/src/main/resources/excel.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My-Project-Workspaces\New-Bazresi-workspace\excel-object-mapping\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="14340" windowHeight="20088"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>first name</t>
   </si>
@@ -46,13 +51,25 @@
   </si>
   <si>
     <t>21/07/1989</t>
+  </si>
+  <si>
+    <t>fatherName</t>
+  </si>
+  <si>
+    <t>abcd1</t>
+  </si>
+  <si>
+    <t>abcd2</t>
+  </si>
+  <si>
+    <t>IQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +87,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,15 +123,15 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -119,6 +143,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -167,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +227,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,18 +472,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,36 +498,54 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +559,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +571,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
